--- a/QDM065 Test Log/QDM065-Summary.xlsx
+++ b/QDM065 Test Log/QDM065-Summary.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,11 @@
           <t>Voltage (mV)</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Charge Current</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -590,6 +595,9 @@
       <c r="P2" t="n">
         <v>3795</v>
       </c>
+      <c r="Q2" t="n">
+        <v>1.23468</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -650,6 +658,9 @@
       <c r="P3" t="n">
         <v>3811</v>
       </c>
+      <c r="Q3" t="n">
+        <v>1.241141</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -710,6 +721,9 @@
       <c r="P4" t="n">
         <v>3848</v>
       </c>
+      <c r="Q4" t="n">
+        <v>1.236062</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -770,6 +784,9 @@
       <c r="P5" t="n">
         <v>3790</v>
       </c>
+      <c r="Q5" t="n">
+        <v>1.231063</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -830,6 +847,9 @@
       <c r="P6" t="n">
         <v>3765</v>
       </c>
+      <c r="Q6" t="n">
+        <v>1.240085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -890,6 +910,9 @@
       <c r="P7" t="n">
         <v>3845</v>
       </c>
+      <c r="Q7" t="n">
+        <v>1.242807</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -950,6 +973,9 @@
       <c r="P8" t="n">
         <v>3740</v>
       </c>
+      <c r="Q8" t="n">
+        <v>1.231876</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1010,6 +1036,9 @@
       <c r="P9" t="n">
         <v>3786</v>
       </c>
+      <c r="Q9" t="n">
+        <v>1.235086</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1070,6 +1099,9 @@
       <c r="P10" t="n">
         <v>3812</v>
       </c>
+      <c r="Q10" t="n">
+        <v>1.244067</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1130,6 +1162,9 @@
       <c r="P11" t="n">
         <v>2945</v>
       </c>
+      <c r="Q11" t="n">
+        <v>1.078533</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1190,6 +1225,9 @@
       <c r="P12" t="n">
         <v>3779</v>
       </c>
+      <c r="Q12" t="n">
+        <v>1.245327</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1250,6 +1288,9 @@
       <c r="P13" t="n">
         <v>3796</v>
       </c>
+      <c r="Q13" t="n">
+        <v>1.235411</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1310,6 +1351,9 @@
       <c r="P14" t="n">
         <v>3795</v>
       </c>
+      <c r="Q14" t="n">
+        <v>1.235289</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1370,6 +1414,9 @@
       <c r="P15" t="n">
         <v>3806</v>
       </c>
+      <c r="Q15" t="n">
+        <v>1.245164</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1430,6 +1477,9 @@
       <c r="P16" t="n">
         <v>3767</v>
       </c>
+      <c r="Q16" t="n">
+        <v>1.2398</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1490,6 +1540,9 @@
       <c r="P17" t="n">
         <v>3783</v>
       </c>
+      <c r="Q17" t="n">
+        <v>1.23724</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1550,6 +1603,9 @@
       <c r="P18" t="n">
         <v>3765</v>
       </c>
+      <c r="Q18" t="n">
+        <v>1.25829</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1610,6 +1666,9 @@
       <c r="P19" t="n">
         <v>3769</v>
       </c>
+      <c r="Q19" t="n">
+        <v>1.253576</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1670,6 +1729,9 @@
       <c r="P20" t="n">
         <v>3785</v>
       </c>
+      <c r="Q20" t="n">
+        <v>1.242848</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1730,6 +1792,9 @@
       <c r="P21" t="n">
         <v>3845</v>
       </c>
+      <c r="Q21" t="n">
+        <v>1.244311</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1790,6 +1855,9 @@
       <c r="P22" t="n">
         <v>3762</v>
       </c>
+      <c r="Q22" t="n">
+        <v>1.240735</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1850,6 +1918,9 @@
       <c r="P23" t="n">
         <v>2928</v>
       </c>
+      <c r="Q23" t="n">
+        <v>1.258602</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1910,6 +1981,9 @@
       <c r="P24" t="n">
         <v>3779</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1.255079</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1970,6 +2044,9 @@
       <c r="P25" t="n">
         <v>3761</v>
       </c>
+      <c r="Q25" t="n">
+        <v>1.237118</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2030,6 +2107,9 @@
       <c r="P26" t="n">
         <v>3806</v>
       </c>
+      <c r="Q26" t="n">
+        <v>1.237931</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2090,6 +2170,9 @@
       <c r="P27" t="n">
         <v>3749</v>
       </c>
+      <c r="Q27" t="n">
+        <v>1.244473</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2150,6 +2233,9 @@
       <c r="P28" t="n">
         <v>3156</v>
       </c>
+      <c r="Q28" t="n">
+        <v>1.437148</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2210,6 +2296,9 @@
       <c r="P29" t="n">
         <v>3810</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.232933</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2270,6 +2359,9 @@
       <c r="P30" t="n">
         <v>3732</v>
       </c>
+      <c r="Q30" t="n">
+        <v>1.24301</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2330,6 +2422,9 @@
       <c r="P31" t="n">
         <v>3807</v>
       </c>
+      <c r="Q31" t="n">
+        <v>1.255242</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2390,6 +2485,9 @@
       <c r="P32" t="n">
         <v>3795</v>
       </c>
+      <c r="Q32" t="n">
+        <v>1.227447</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2450,6 +2548,9 @@
       <c r="P33" t="n">
         <v>3742</v>
       </c>
+      <c r="Q33" t="n">
+        <v>1.234314</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2510,6 +2611,9 @@
       <c r="P34" t="n">
         <v>3794</v>
       </c>
+      <c r="Q34" t="n">
+        <v>1.232689</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2570,6 +2674,9 @@
       <c r="P35" t="n">
         <v>3204</v>
       </c>
+      <c r="Q35" t="n">
+        <v>1.462527</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2630,6 +2737,9 @@
       <c r="P36" t="n">
         <v>3113</v>
       </c>
+      <c r="Q36" t="n">
+        <v>3.528045</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2690,6 +2800,9 @@
       <c r="P37" t="n">
         <v>3746</v>
       </c>
+      <c r="Q37" t="n">
+        <v>1.235371</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2750,6 +2863,9 @@
       <c r="P38" t="n">
         <v>3757</v>
       </c>
+      <c r="Q38" t="n">
+        <v>1.275276</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2810,6 +2926,9 @@
       <c r="P39" t="n">
         <v>3792</v>
       </c>
+      <c r="Q39" t="n">
+        <v>1.240857</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2870,6 +2989,9 @@
       <c r="P40" t="n">
         <v>3744</v>
       </c>
+      <c r="Q40" t="n">
+        <v>1.230901</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2930,6 +3052,9 @@
       <c r="P41" t="n">
         <v>3786</v>
       </c>
+      <c r="Q41" t="n">
+        <v>1.233867</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2990,6 +3115,9 @@
       <c r="P42" t="n">
         <v>3799</v>
       </c>
+      <c r="Q42" t="n">
+        <v>1.244473</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3050,6 +3178,9 @@
       <c r="P43" t="n">
         <v>3814</v>
       </c>
+      <c r="Q43" t="n">
+        <v>1.259834</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3110,6 +3241,9 @@
       <c r="P44" t="n">
         <v>3839</v>
       </c>
+      <c r="Q44" t="n">
+        <v>1.239353</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3170,6 +3304,9 @@
       <c r="P45" t="n">
         <v>3781</v>
       </c>
+      <c r="Q45" t="n">
+        <v>1.24236</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3230,6 +3367,9 @@
       <c r="P46" t="n">
         <v>3767</v>
       </c>
+      <c r="Q46" t="n">
+        <v>1.253698</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3290,6 +3430,9 @@
       <c r="P47" t="n">
         <v>3777</v>
       </c>
+      <c r="Q47" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3350,6 +3493,9 @@
       <c r="P48" t="n">
         <v>3792</v>
       </c>
+      <c r="Q48" t="n">
+        <v>1.257314</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3410,6 +3556,9 @@
       <c r="P49" t="n">
         <v>3775</v>
       </c>
+      <c r="Q49" t="n">
+        <v>1.248374</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3470,6 +3619,9 @@
       <c r="P50" t="n">
         <v>3819</v>
       </c>
+      <c r="Q50" t="n">
+        <v>1.242645</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3530,6 +3682,9 @@
       <c r="P51" t="n">
         <v>3007</v>
       </c>
+      <c r="Q51" t="n">
+        <v>9.328884</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3590,6 +3745,9 @@
       <c r="P52" t="n">
         <v>3844</v>
       </c>
+      <c r="Q52" t="n">
+        <v>1.255851</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3650,6 +3808,9 @@
       <c r="P53" t="n">
         <v>3769</v>
       </c>
+      <c r="Q53" t="n">
+        <v>1.227853</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3710,6 +3871,9 @@
       <c r="P54" t="n">
         <v>3765</v>
       </c>
+      <c r="Q54" t="n">
+        <v>1.245733</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3770,6 +3934,9 @@
       <c r="P55" t="n">
         <v>3785</v>
       </c>
+      <c r="Q55" t="n">
+        <v>1.250366</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3830,6 +3997,9 @@
       <c r="P56" t="n">
         <v>3762</v>
       </c>
+      <c r="Q56" t="n">
+        <v>1.248903</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3890,6 +4060,9 @@
       <c r="P57" t="n">
         <v>3788</v>
       </c>
+      <c r="Q57" t="n">
+        <v>1.245814</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3950,6 +4123,9 @@
       <c r="P58" t="n">
         <v>3777</v>
       </c>
+      <c r="Q58" t="n">
+        <v>1.26154</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4010,6 +4186,9 @@
       <c r="P59" t="n">
         <v>3756</v>
       </c>
+      <c r="Q59" t="n">
+        <v>1.238378</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4070,6 +4249,9 @@
       <c r="P60" t="n">
         <v>3783</v>
       </c>
+      <c r="Q60" t="n">
+        <v>1.255973</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4130,6 +4312,9 @@
       <c r="P61" t="n">
         <v>3779</v>
       </c>
+      <c r="Q61" t="n">
+        <v>1.241588</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4190,6 +4375,9 @@
       <c r="P62" t="n">
         <v>3763</v>
       </c>
+      <c r="Q62" t="n">
+        <v>1.247562</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4250,6 +4438,9 @@
       <c r="P63" t="n">
         <v>3771</v>
       </c>
+      <c r="Q63" t="n">
+        <v>1.244026</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4310,6 +4501,9 @@
       <c r="P64" t="n">
         <v>3787</v>
       </c>
+      <c r="Q64" t="n">
+        <v>1.246383</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4370,6 +4564,9 @@
       <c r="P65" t="n">
         <v>3738</v>
       </c>
+      <c r="Q65" t="n">
+        <v>1.236183</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4430,6 +4627,9 @@
       <c r="P66" t="n">
         <v>3802</v>
       </c>
+      <c r="Q66" t="n">
+        <v>1.237971</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4490,6 +4690,9 @@
       <c r="P67" t="n">
         <v>3812</v>
       </c>
+      <c r="Q67" t="n">
+        <v>1.230779</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4550,6 +4753,9 @@
       <c r="P68" t="n">
         <v>3759</v>
       </c>
+      <c r="Q68" t="n">
+        <v>1.255608</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4610,6 +4816,9 @@
       <c r="P69" t="n">
         <v>3815</v>
       </c>
+      <c r="Q69" t="n">
+        <v>1.221554</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4670,6 +4879,9 @@
       <c r="P70" t="n">
         <v>3819</v>
       </c>
+      <c r="Q70" t="n">
+        <v>1.264507</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4730,6 +4942,9 @@
       <c r="P71" t="n">
         <v>3170</v>
       </c>
+      <c r="Q71" t="n">
+        <v>1.748647</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4790,6 +5005,9 @@
       <c r="P72" t="n">
         <v>3752</v>
       </c>
+      <c r="Q72" t="n">
+        <v>1.26406</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4850,6 +5068,9 @@
       <c r="P73" t="n">
         <v>3891</v>
       </c>
+      <c r="Q73" t="n">
+        <v>1.245286</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4910,6 +5131,9 @@
       <c r="P74" t="n">
         <v>3752</v>
       </c>
+      <c r="Q74" t="n">
+        <v>1.243132</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4970,6 +5194,9 @@
       <c r="P75" t="n">
         <v>3759</v>
       </c>
+      <c r="Q75" t="n">
+        <v>1.218872</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5030,6 +5257,9 @@
       <c r="P76" t="n">
         <v>3771</v>
       </c>
+      <c r="Q76" t="n">
+        <v>1.234842</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5090,6 +5320,9 @@
       <c r="P77" t="n">
         <v>3783</v>
       </c>
+      <c r="Q77" t="n">
+        <v>1.240694</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5150,6 +5383,9 @@
       <c r="P78" t="n">
         <v>3770</v>
       </c>
+      <c r="Q78" t="n">
+        <v>1.246221</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5210,6 +5446,9 @@
       <c r="P79" t="n">
         <v>3765</v>
       </c>
+      <c r="Q79" t="n">
+        <v>1.231063</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5270,6 +5509,9 @@
       <c r="P80" t="n">
         <v>3729</v>
       </c>
+      <c r="Q80" t="n">
+        <v>1.268733</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5330,6 +5572,9 @@
       <c r="P81" t="n">
         <v>3795</v>
       </c>
+      <c r="Q81" t="n">
+        <v>1.264669</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5390,6 +5635,9 @@
       <c r="P82" t="n">
         <v>3773</v>
       </c>
+      <c r="Q82" t="n">
+        <v>1.247968</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5450,6 +5698,9 @@
       <c r="P83" t="n">
         <v>3839</v>
       </c>
+      <c r="Q83" t="n">
+        <v>1.26276</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5510,6 +5761,9 @@
       <c r="P84" t="n">
         <v>3769</v>
       </c>
+      <c r="Q84" t="n">
+        <v>1.240206</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5570,6 +5824,9 @@
       <c r="P85" t="n">
         <v>3765</v>
       </c>
+      <c r="Q85" t="n">
+        <v>1.266783</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5630,6 +5887,9 @@
       <c r="P86" t="n">
         <v>3738</v>
       </c>
+      <c r="Q86" t="n">
+        <v>1.248334</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5690,6 +5950,9 @@
       <c r="P87" t="n">
         <v>3734</v>
       </c>
+      <c r="Q87" t="n">
+        <v>1.239109</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5750,6 +6013,9 @@
       <c r="P88" t="n">
         <v>3785</v>
       </c>
+      <c r="Q88" t="n">
+        <v>1.237565</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5810,6 +6076,9 @@
       <c r="P89" t="n">
         <v>3774</v>
       </c>
+      <c r="Q89" t="n">
+        <v>1.234111</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5870,6 +6139,9 @@
       <c r="P90" t="n">
         <v>3782</v>
       </c>
+      <c r="Q90" t="n">
+        <v>1.237931</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5930,6 +6202,9 @@
       <c r="P91" t="n">
         <v>4148</v>
       </c>
+      <c r="Q91" t="n">
+        <v>1.259468</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5990,6 +6265,9 @@
       <c r="P92" t="n">
         <v>3750</v>
       </c>
+      <c r="Q92" t="n">
+        <v>1.240328</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6050,6 +6328,9 @@
       <c r="P93" t="n">
         <v>3796</v>
       </c>
+      <c r="Q93" t="n">
+        <v>1.236752</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6110,6 +6391,9 @@
       <c r="P94" t="n">
         <v>3881</v>
       </c>
+      <c r="Q94" t="n">
+        <v>1.245123</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6170,6 +6454,9 @@
       <c r="P95" t="n">
         <v>3774</v>
       </c>
+      <c r="Q95" t="n">
+        <v>1.224521</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6230,6 +6517,9 @@
       <c r="P96" t="n">
         <v>3767</v>
       </c>
+      <c r="Q96" t="n">
+        <v>1.242198</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6290,6 +6580,9 @@
       <c r="P97" t="n">
         <v>3812</v>
       </c>
+      <c r="Q97" t="n">
+        <v>1.236509</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6349,6 +6642,9 @@
       </c>
       <c r="P98" t="n">
         <v>3798</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1.235574</v>
       </c>
     </row>
   </sheetData>
@@ -6362,7 +6658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6449,6 +6745,11 @@
       <c r="P1" t="inlineStr">
         <is>
           <t>Voltage (mV)</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Charge Current</t>
         </is>
       </c>
     </row>
